--- a/report/reliability/comb/Instituto de Química e Biotecnologia - IQB-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Química e Biotecnologia - IQB-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7950087888760954</v>
+        <v>0.7624382908250753</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8106882502397725</v>
+        <v>0.7910054008073442</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9088200033929031</v>
+        <v>0.8963418233932109</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.26300303597671965</v>
+        <v>0.22549031207643844</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.28229231025834</v>
+        <v>3.7848126404365967</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.028628591151229097</v>
+        <v>0.030657221662900764</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5903361344537816</v>
+        <v>1.9825468648998061</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7357065342321361</v>
+        <v>0.6111684919587435</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20222822607195018</v>
+        <v>0.1634781639792155</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7711056388278963</v>
+        <v>0.7640865550799011</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7830732887453205</v>
+        <v>0.7875523707472701</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8906243975672624</v>
+        <v>0.8964610718110592</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.24708339844414354</v>
+        <v>0.23601148519057724</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.609851844505975</v>
+        <v>3.7070424062505767</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03200596436991583</v>
+        <v>0.031185177666869995</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04311869193299976</v>
+        <v>0.05187366059448588</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.19595612100876433</v>
+        <v>0.17237140400635126</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.772766744719621</v>
+        <v>0.7424845865127101</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7877653679207083</v>
+        <v>0.7695381594861939</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.892114711623968</v>
+        <v>0.8818092301398195</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2522991644695761</v>
+        <v>0.21768619267772563</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.711766360668205</v>
+        <v>3.339113138081937</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03174414519942487</v>
+        <v>0.03306623040948734</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04262774135786832</v>
+        <v>0.05304819296277302</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.20093228306387637</v>
+        <v>0.14624580402014487</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7713932104488658</v>
+        <v>0.7479251129809751</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7834643718866883</v>
+        <v>0.7764200741252503</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.886498114247486</v>
+        <v>0.8840167671920687</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24751222368125583</v>
+        <v>0.22443913566243903</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.6181776583976575</v>
+        <v>3.472673457098306</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.031876425067553026</v>
+        <v>0.032298951886353434</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04104631099927328</v>
+        <v>0.05198607774599399</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.19870890386786733</v>
+        <v>0.1634781639792155</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7759175417658541</v>
+        <v>0.7498780242552484</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7899138452239574</v>
+        <v>0.7742041586292999</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8899227488988173</v>
+        <v>0.8786369702021786</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.25474012078819397</v>
+        <v>0.22223271274110937</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.7599519400315833</v>
+        <v>3.4287795290182133</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.031215719856215553</v>
+        <v>0.03276230292300514</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.040424909354149205</v>
+        <v>0.03861486455062642</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.204700253113735</v>
+        <v>0.16956537452069526</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.783823379614252</v>
+        <v>0.7316250565103812</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8050765723567116</v>
+        <v>0.7688230242503851</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8748088437882594</v>
+        <v>0.8752684927665189</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2729781688725171</v>
+        <v>0.21700101134347322</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.130219656459195</v>
+        <v>3.3256902931505112</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.029883424238647444</v>
+        <v>0.03431219871963906</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04145237696413601</v>
+        <v>0.039088357746720155</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2075327713987106</v>
+        <v>0.16258496761479135</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7912897966948255</v>
+        <v>0.7411146718395966</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8080729602571639</v>
+        <v>0.7725756277340917</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8771851732407825</v>
+        <v>0.8779129081588373</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.27680647910142553</v>
+        <v>0.22063074134690128</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.210313259350555</v>
+        <v>3.3970661105344697</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.028802025729134238</v>
+        <v>0.032900230185171304</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04042522125843074</v>
+        <v>0.03886540557732241</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2093849505779091</v>
+        <v>0.16792403897606467</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7920194148782179</v>
+        <v>0.7637749607464265</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8125484010952879</v>
+        <v>0.7919218470355679</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9054898890548566</v>
+        <v>0.8935159870930967</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2826731192977783</v>
+        <v>0.24078918636243204</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.334710431082177</v>
+        <v>3.8058865659526284</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02944061336647922</v>
+        <v>0.031195022053898472</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.047923827157773054</v>
+        <v>0.05038210368372327</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2093849505779091</v>
+        <v>0.16956537452069526</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7868986705010126</v>
+        <v>0.7537679151018141</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8019705928245641</v>
+        <v>0.7828934472112153</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9002082032918067</v>
+        <v>0.8838637384053667</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2690910942061773</v>
+        <v>0.23106661307912923</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.049755055389785</v>
+        <v>3.606033245679438</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.029875973985732027</v>
+        <v>0.03170728461961163</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05039212194585876</v>
+        <v>0.051529282170006976</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.19870890386786733</v>
+        <v>0.16894001970415787</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7803211908947209</v>
+        <v>0.750292348596838</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7982100144176388</v>
+        <v>0.7764847129039384</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9088586999764645</v>
+        <v>0.8885606417091494</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2644918826174238</v>
+        <v>0.22450396436419676</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.955647313785288</v>
+        <v>3.4739669173957823</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03108483884937934</v>
+        <v>0.03172265364818547</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.052239761345508784</v>
+        <v>0.05390001587371244</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.19870890386786733</v>
+        <v>0.15688265704386906</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7869507320780633</v>
+        <v>0.7403109795202051</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8034292270185276</v>
+        <v>0.7759033253290974</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9133326083581669</v>
+        <v>0.8941043976537906</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.27090640758073614</v>
+        <v>0.22392182507877503</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.087226268852561</v>
+        <v>3.4623598340696127</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.029969957203249194</v>
+        <v>0.03368393659532114</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05138070966567108</v>
+        <v>0.05587523409720088</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19870890386786733</v>
+        <v>0.15161579594095245</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.770934545321009</v>
+        <v>0.7526644507802195</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7875447236464767</v>
+        <v>0.7857095915313629</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8809242126001727</v>
+        <v>0.899386155020486</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25205038392612056</v>
+        <v>0.23403755520669076</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.7068729812857666</v>
+        <v>3.666564440033524</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03199497530187007</v>
+        <v>0.03167823693568814</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.046249066353062654</v>
+        <v>0.05435474763528327</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.20041505719333633</v>
+        <v>0.1634781639792155</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7816879685855898</v>
+        <v>0.7297117280662955</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7989633299277198</v>
+        <v>0.765865557479035</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8905320562544983</v>
+        <v>0.867085357866519</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2654039887352877</v>
+        <v>0.2141994361625569</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.9742168910799336</v>
+        <v>3.2710503812802236</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03069172647475831</v>
+        <v>0.034589212249372885</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.0457917600318207</v>
+        <v>0.05025130588520177</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.20352416908002396</v>
+        <v>0.14874264195946904</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7431101305587418</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7768334612453092</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.875812201071986</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2248541977776934</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.480958505608317</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03301801840556496</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.050588434519023624</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.16560107154303427</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>119.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6535300531946173</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6976818621637605</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6856873454344485</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5798111233885879</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4453781512605044</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0142834073206781</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6213830155523791</v>
+        <v>0.3273854916796456</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6557111727578734</v>
+        <v>0.4338736974205006</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6386599069169928</v>
+        <v>0.3644624600320431</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5281935226064137</v>
+        <v>0.3095247808815338</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9159663865546217</v>
+        <v>0.9747899159663865</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1830714975655894</v>
+        <v>0.15742552040162258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6437432828365687</v>
+        <v>0.5479148866600025</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6942311531502641</v>
+        <v>0.6081255000161997</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6912958573503062</v>
+        <v>0.5762881927324496</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5643980333840294</v>
+        <v>0.4489114595014225</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5294117647058822</v>
+        <v>3.4453781512605044</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0642378462635789</v>
+        <v>1.0142834073206781</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.591245414057269</v>
+        <v>0.505542102816159</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6360690686062496</v>
+        <v>0.5439130195285319</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6269878281410564</v>
+        <v>0.5084064315753043</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4871875183805036</v>
+        <v>0.3820010462975092</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.9495798319327733</v>
+        <v>3.9159663865546217</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2477012048318918</v>
+        <v>1.1830714975655894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5658668584231964</v>
+        <v>0.6018356325473105</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.489309523069836</v>
+        <v>0.564893485246093</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5070195929893004</v>
+        <v>0.58924816664453</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.41980168896462094</v>
+        <v>0.5659468949177672</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8739495798319328</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.628946950311086</v>
+        <v>0.42597609451787066</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5372649310666853</v>
+        <v>0.6591165530508191</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.4585035362246785</v>
+        <v>0.6146407620516995</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4744739061291971</v>
+        <v>0.6453224178133157</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.37273571839821</v>
+        <v>0.5168950914089165</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.9243697478991597</v>
+        <v>0.8739495798319328</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7522850160239742</v>
+        <v>1.628946950311086</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4073411708192935</v>
+        <v>0.6269435585637566</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4112953347185939</v>
+        <v>0.5801263336686617</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3434618458202912</v>
+        <v>0.6063586318620116</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2978142018769294</v>
+        <v>0.4625019505055228</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.134453781512605</v>
+        <v>0.9243697478991597</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.080837479339079</v>
+        <v>1.7522850160239742</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5280821167573585</v>
+        <v>0.29575683473363423</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5205883808105658</v>
+        <v>0.38844342443165586</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.46419903587639116</v>
+        <v>0.3266776408501607</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.3847266720226195</v>
+        <v>0.27236079014681525</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.226890756302521</v>
+        <v>0.957983193277311</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5373153729021536</v>
+        <v>0.20147582532332894</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5814612427394387</v>
+        <v>0.4407592385204771</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5575977252026041</v>
+        <v>0.4808935678220634</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.48110869450151506</v>
+        <v>0.4434668062565307</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.44508345280312556</v>
+        <v>0.3214581815548344</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3949579831932772</v>
+        <v>3.134453781512605</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5634516757122439</v>
+        <v>1.080837479339079</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.49633099040928946</v>
+        <v>0.5391904370873313</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5059807558813703</v>
+        <v>0.543296575445399</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.41567721765766114</v>
+        <v>0.4944321058978026</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3694453107846332</v>
+        <v>0.3797340894800204</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3865546218487395</v>
+        <v>3.226890756302521</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3347331587407338</v>
+        <v>1.5373153729021536</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6387388880771551</v>
+        <v>0.6035420173343585</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6577130821358412</v>
+        <v>0.5488320297785491</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6538265007193836</v>
+        <v>0.47777788318855524</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5478882440197649</v>
+        <v>0.45443554937860087</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.2016806722689077</v>
+        <v>1.3949579831932772</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.1902131409518462</v>
+        <v>1.5634516757122439</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5284418287771808</v>
+        <v>0.4878205206607504</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5502581086647059</v>
+        <v>0.4526434309812985</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5334905031666927</v>
+        <v>0.3670193314622332</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.43340184890112454</v>
+        <v>0.34401615491164106</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.3865546218487395</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3347331587407338</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>119.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6528087019851623</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6412804200565949</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6430372534434533</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5531693459319119</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.2016806722689077</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.1902131409518462</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>119.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5416732716178317</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5399662709720471</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5288497023783805</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4367913274938234</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.100840336134454</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.0608196222268802</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.05042016806722689</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.36134453781512604</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4789915966386555</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.07563025210084033</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.31092436974789917</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.15966386554621848</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.44537815126050423</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.01680672268907563</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06722689075630252</v>
+        <v>0.9747899159663865</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.01680672268907563</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4957983193277311</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11764705882352941</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.01680672268907563</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.05042016806722689</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.008403361344537815</v>
       </c>
-      <c r="D46" t="n" s="111">
-        <v>0.08403361344537816</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.3277310924369748</v>
+        <v>0.36134453781512604</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.025210084033613446</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5378151260504201</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7647058823529411</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.008403361344537815</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.008403361344537815</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.04201680672268908</v>
+        <v>0.31092436974789917</v>
       </c>
       <c r="F47" t="n" s="113">
         <v>0.15966386554621848</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.01680672268907563</v>
+        <v>0.44537815126050423</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7647058823529411</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.008403361344537815</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.008403361344537815</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06722689075630252</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.058823529411764705</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.09243697478991597</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.04201680672268908</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.06722689075630252</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.008403361344537815</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.5378151260504201</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2857142857142857</v>
+        <v>0.15966386554621848</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.058823529411764705</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.04201680672268908</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.10084033613445378</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.25210084033613445</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.07563025210084033</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.25210084033613445</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2773109243697479</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5042016806722689</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.08403361344537816</v>
+        <v>0.957983193277311</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.025210084033613446</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.10084033613445378</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.18487394957983194</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="C52" t="n" s="110">
         <v>0.06722689075630252</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.06722689075630252</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E52" t="n" s="112">
         <v>0.5378151260504201</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.12605042016806722</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.09243697478991597</v>
+        <v>0.10084033613445378</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3865546218487395</v>
+        <v>0.25210084033613445</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24369747899159663</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.15126050420168066</v>
+        <v>0.25210084033613445</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2773109243697479</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.1092436974789916</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.09243697478991597</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4789915966386555</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.226890756302521</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.09243697478991597</v>
+        <v>0.10084033613445378</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.18487394957983194</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.06722689075630252</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.06722689075630252</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5378151260504201</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.12605042016806722</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.09243697478991597</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3865546218487395</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24369747899159663</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.15126050420168066</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.1092436974789916</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.09243697478991597</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4789915966386555</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.226890756302521</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.09243697478991597</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.9018149065525782</v>
+        <v>0.8785112570075246</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.904328815674537</v>
+        <v>0.9889522120616782</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9033651377396228</v>
+        <v>0.9851208599642207</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.7026567929942598</v>
+        <v>0.9675731266261097</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>9.45246807647023</v>
+        <v>89.51585761628081</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.014718522530731065</v>
+        <v>0.002874656915979781</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7100840336134455</v>
+        <v>0.6778711484593838</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9941477022532701</v>
+        <v>1.258442505167453</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.7151897922185432</v>
+        <v>0.9713004602100701</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.880577371191853</v>
+        <v>0.9867251616807231</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.881425353091609</v>
+        <v>0.9880555409428895</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8445551162507359</v>
+        <v>0.9763930540847272</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.7124648233620098</v>
+        <v>0.9763930540847274</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>7.433506032470702</v>
+        <v>82.72082780967</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.018684644840950025</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.00632399198689685</v>
-      </c>
+        <v>0.0023055217471642762</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.7491916619410811</v>
+        <v>0.9763930540847273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8804977218073661</v>
+        <v>0.6095852871323306</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8859749498572785</v>
+        <v>0.9769956320229838</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8540149804061965</v>
+        <v>0.9550258655835319</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.7214485383384163</v>
+        <v>0.955025865583532</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>7.770002720878716</v>
+        <v>42.47000539198075</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.01908484438077529</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.007654791067135484</v>
-      </c>
+        <v>0.010840931746442493</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.766987249631725</v>
+        <v>0.9550258655835319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.864235401045217</v>
+        <v>0.6445110324162353</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8663684822375992</v>
+        <v>0.9854413163446065</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8187849589694222</v>
+        <v>0.97130046021007</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6836532416325212</v>
+        <v>0.9713004602100701</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>6.483264552738363</v>
+        <v>67.68752860287191</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.020991277758271143</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.004139789213222616</v>
-      </c>
+        <v>0.00862641251286636</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6811879224960052</v>
+        <v>0.9713004602100701</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8668990664618397</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8713646903506569</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8284859738714339</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6930605686440917</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>6.773915285981561</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.0215104266967256</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.006155655590051745</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6811879224960052</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>119.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9751870575658583</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9861597067505474</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9746923765875377</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9685920286728816</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.42597609451787066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>119.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8603230659843829</v>
+        <v>0.9942492750533899</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8731266751599756</v>
+        <v>0.9933603597196614</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8235935549969869</v>
+        <v>0.990811979694603</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.764875731383937</v>
+        <v>0.9823723077631041</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4453781512605044</v>
+        <v>0.8739495798319328</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0142834073206781</v>
+        <v>1.628946950311086</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>119.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.872575962321134</v>
+        <v>0.993184214288255</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8654828844343171</v>
+        <v>0.9878758895418394</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8063340976567408</v>
+        <v>0.9797327145448852</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7621541091531023</v>
+        <v>0.9765802211558824</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9159663865546217</v>
+        <v>0.9243697478991597</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1830714975655894</v>
+        <v>1.7522850160239742</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>119.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8912218072616036</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8976409993336383</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8683659211401179</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.8087093826224943</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5294117647058822</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0642378462635789</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>119.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9002056475652573</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.88963677845696</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8529044743677044</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.802861254083615</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.9495798319327733</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2477012048318918</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.008403361344537815</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.008403361344537815</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.04201680672268908</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.15966386554621848</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.01680672268907563</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.025210084033613446</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.05042016806722689</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.008403361344537815</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.36134453781512604</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4789915966386555</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.07563025210084033</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.31092436974789917</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.15966386554621848</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.44537815126050423</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.01680672268907563</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06722689075630252</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.01680672268907563</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4957983193277311</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.01680672268907563</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08403361344537816</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3277310924369748</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5378151260504201</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,28 +5873,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7127504931990447</v>
+        <v>0.6167770108465981</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.740886252209283</v>
+        <v>0.7833903850615702</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.5884188410374094</v>
+        <v>0.7194128464702266</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.5884188410374096</v>
+        <v>0.5465949442562797</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>2.859308927165407</v>
+        <v>3.616600238563949</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.04811908706579306</v>
+        <v>0.03547374409753215</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.180672268907563</v>
+        <v>2.439775910364146</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.1712138648025925</v>
+        <v>0.8210194997916455</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.5884188410374096</v>
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.5884188410374096</v>
+        <v>0.7127504931990447</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.5884188410374096</v>
+        <v>0.740886252209283</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.34623673248780806</v>
+        <v>0.5884188410374094</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.5884188410374096</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.5884188410374096</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>2.859308927165407</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.04811908706579306</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.5884188410374096</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.34623673248780806</v>
+        <v>0.20427705075007974</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.5884188410374096</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.34623673248780806</v>
-      </c>
+        <v>0.6125129594279999</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.44145490481517424</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.44145490481517413</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.5807314704611062</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03395238955263449</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.5884188410374096</v>
+        <v>0.441454904815174</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3603168469860898</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7576953682386587</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6099110869162556</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6099110869162558</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.127036254861826</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.034324938322618494</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6099110869162557</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>119.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.847591916829724</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8911842797753475</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6836137701674893</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.5884188410374097</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.134453781512605</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.080837479339079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>119.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9277983189735199</v>
+        <v>0.6249733813195767</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.8911842797753475</v>
+        <v>0.818612194637311</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.6836137701674893</v>
+        <v>0.6745753321598442</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.5884188410374096</v>
+        <v>0.5711468304913061</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.957983193277311</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.20147582532332894</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>119.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8559703918995405</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8772591990472255</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7983425289895146</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.627930862737636</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.134453781512605</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.080837479339079</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>119.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.918469050454717</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8100355610002693</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6525475202889158</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.5970105511673808</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.226890756302521</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.5373153729021536</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.04201680672268908</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.957983193277311</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.04201680672268908</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.06722689075630252</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.008403361344537815</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.5378151260504201</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2857142857142857</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.058823529411764705</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.04201680672268908</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.10084033613445378</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.25210084033613445</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.07563025210084033</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.25210084033613445</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2773109243697479</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.899488191404082</v>
+        <v>0.6753590807532716</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9027600599283903</v>
+        <v>0.8107303306978096</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8227553764306765</v>
+        <v>0.7490920047539082</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8227553764306765</v>
+        <v>0.5881082302073332</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.283840151110509</v>
+        <v>4.283466726004513</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.018059699912648046</v>
+        <v>0.025629736252394782</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.1512605042016806</v>
+        <v>2.7787114845938374</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.0746592322502797</v>
+        <v>0.7041407138257142</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8227553764306764</v>
+        <v>0.5485821651132525</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8227553764306765</v>
+        <v>0.8046831183398766</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8227553764306765</v>
+        <v>0.810364996537291</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6769264094455842</v>
+        <v>0.6811879224960053</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8227553764306765</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8227553764306765</v>
-      </c>
+        <v>0.6811879224960053</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.273288062541923</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.035037238916608204</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8227553764306765</v>
+        <v>0.6811879224960052</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6769264094455842</v>
+        <v>0.24528467409421872</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8227553764306765</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6769264094455842</v>
-      </c>
+        <v>0.6966902343693313</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5345546030127415</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5345546030127415</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.296959456352191</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.030883178154767384</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8227553764306765</v>
+        <v>0.5345546030127415</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.2851512692708935</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7084960391147641</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5485821651132525</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5485821651132525</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.430485119184012</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.033684003413696574</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5485821651132525</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>119.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9598429560979721</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9546610331501638</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8659335384070365</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8227553764306764</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.2016806722689077</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.1902131409518462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>119.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9491724547751045</v>
+        <v>0.6373061502771025</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9546610331501639</v>
+        <v>0.8152787292135182</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8659335384070365</v>
+        <v>0.6476989807666351</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8227553764306764</v>
+        <v>0.5897732602459779</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.100840336134454</v>
+        <v>0.9747899159663865</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.0608196222268802</v>
+        <v>0.15742552040162258</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>119.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9025365803089184</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8726667165016598</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7874522882350703</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7002530776248177</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.4453781512605044</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0142834073206781</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>119.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9269651187303101</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8671767394736241</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7763095724629198</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6992147726998759</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.9159663865546217</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1830714975655894</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.12605042016806722</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.09243697478991597</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3865546218487395</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24369747899159663</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.15126050420168066</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.025210084033613446</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9747899159663865</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1092436974789916</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.09243697478991597</v>
-      </c>
-      <c r="D24" t="n" s="456">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.025210084033613446</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.05042016806722689</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.008403361344537815</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.36134453781512604</v>
+      </c>
+      <c r="F26" t="n" s="458">
         <v>0.4789915966386555</v>
       </c>
-      <c r="E24" t="n" s="457">
-        <v>0.226890756302521</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.09243697478991597</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G26" t="n" s="459">
+        <v>0.07563025210084033</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.025210084033613446</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.31092436974789917</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.15966386554621848</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.44537815126050423</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9867251616807231</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9880555409428895</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9763930540847272</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9763930540847274</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>82.72082780967</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0023055217471642762</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.8991596638655462</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.680622150655662</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9763930540847273</v>
+      <c r="A6" t="n" s="491">
+        <v>0.48044864408081756</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.48501027777593775</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.320140969051542</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.320140969051542</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>0.9417863247471159</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.09394335529513635</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.8907563025210083</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1791976298643658</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3201409690515421</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9763930540847274</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9763930540847274</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9533433960649009</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9763930540847274</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9763930540847274</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9763930540847274</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.3201409690515421</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.3201409690515421</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.10249024006526031</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.3201409690515421</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.3201409690515421</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.3201409690515421</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9533433960649009</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9763930540847274</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9533433960649009</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9763930540847274</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.10249024006526031</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.3201409690515421</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.10249024006526031</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.3201409690515421</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>119.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9936397266424986</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9940807447297042</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9822770612585912</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9763930540847275</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.8739495798319328</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.628946950311086</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8441139941935388</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8124472195323036</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.4596907705821395</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.32014096905154205</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.3949579831932772</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5634516757122439</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>119.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9945059639003625</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9940807447297043</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9822770612585912</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9763930540847275</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.9243697478991597</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7522850160239742</v>
+      <c r="C18" t="n" s="545">
+        <v>0.7781808777378583</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8124472195323036</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.4596907705821396</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.32014096905154216</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3865546218487395</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3347331587407338</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.04201680672268908</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.15966386554621848</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.01680672268907563</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5042016806722689</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.08403361344537816</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.025210084033613446</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.10084033613445378</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="E24" t="n" s="571">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.18487394957983194</v>
+      </c>
+      <c r="C24" t="n" s="570">
         <v>0.06722689075630252</v>
       </c>
-      <c r="F24" t="n" s="572">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.09243697478991597</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="D24" t="n" s="571">
+        <v>0.06722689075630252</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5378151260504201</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.48044864408081756</v>
+        <v>0.899488191404082</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.48501027777593775</v>
+        <v>0.9027600599283903</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.320140969051542</v>
+        <v>0.8227553764306765</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.320140969051542</v>
+        <v>0.8227553764306765</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>0.9417863247471159</v>
+        <v>9.283840151110509</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.09394335529513635</v>
+        <v>0.018059699912648046</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.8907563025210083</v>
+        <v>2.1512605042016806</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1791976298643658</v>
+        <v>1.0746592322502797</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3201409690515421</v>
+        <v>0.8227553764306764</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.3201409690515421</v>
+        <v>0.8227553764306765</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.3201409690515421</v>
+        <v>0.8227553764306765</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.10249024006526031</v>
+        <v>0.6769264094455842</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.3201409690515421</v>
+        <v>0.8227553764306765</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.3201409690515421</v>
+        <v>0.8227553764306765</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.3201409690515421</v>
+        <v>0.8227553764306765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.10249024006526031</v>
+        <v>0.6769264094455842</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.3201409690515421</v>
+        <v>0.8227553764306765</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.10249024006526031</v>
+        <v>0.6769264094455842</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.3201409690515421</v>
+        <v>0.8227553764306765</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>119.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8441139941935388</v>
+        <v>0.9598429560979721</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8124472195323036</v>
+        <v>0.9546610331501638</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.4596907705821395</v>
+        <v>0.8659335384070365</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.32014096905154205</v>
+        <v>0.8227553764306764</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.3949579831932772</v>
+        <v>2.2016806722689077</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5634516757122439</v>
+        <v>1.1902131409518462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>119.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.7781808777378583</v>
+        <v>0.9491724547751045</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8124472195323036</v>
+        <v>0.9546610331501639</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.4596907705821396</v>
+        <v>0.8659335384070365</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.32014096905154216</v>
+        <v>0.8227553764306764</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3865546218487395</v>
+        <v>2.100840336134454</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3347331587407338</v>
+        <v>1.0608196222268802</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5042016806722689</v>
+        <v>0.12605042016806722</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.08403361344537816</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.025210084033613446</v>
+        <v>0.3865546218487395</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.2857142857142857</v>
+        <v>0.24369747899159663</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.10084033613445378</v>
+        <v>0.15126050420168066</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.18487394957983194</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.06722689075630252</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.06722689075630252</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5378151260504201</v>
+        <v>0.226890756302521</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14285714285714285</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7920311696328864</v>
+        <v>0.7573066714905307</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8120595564963745</v>
+        <v>0.792248537359073</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9122613452026581</v>
+        <v>0.894236804592811</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.30171667131758817</v>
+        <v>0.27606756800054383</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.320834522669991</v>
+        <v>3.813443849145733</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02991305155878906</v>
+        <v>0.03204409960398405</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4722689075630253</v>
+        <v>1.8453781512605043</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7830756798012911</v>
+        <v>0.6892329191258371</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2093849505779091</v>
+        <v>0.1811298234156132</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7637988714339297</v>
+        <v>0.7414290031291328</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7799503069185524</v>
+        <v>0.7692700704717513</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8917885528479645</v>
+        <v>0.8698313804701276</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.28254999300001127</v>
+        <v>0.27031393995014663</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.5444280607556555</v>
+        <v>3.3340714490079546</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.034037080218660656</v>
+        <v>0.035101051672641485</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.054288666940658974</v>
+        <v>0.046303006800635975</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.20423252723129348</v>
+        <v>0.20111653647394565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7674607097379532</v>
+        <v>0.7140306601314006</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7867218234924809</v>
+        <v>0.7620122157490079</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8953735549833158</v>
+        <v>0.8649826284342155</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2907081649542184</v>
+        <v>0.2624097314050745</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.688712255399205</v>
+        <v>3.201896341643137</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.03344598944748469</v>
+        <v>0.03751659842314257</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.05350167883409584</v>
+        <v>0.047470238944777</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.20902263121013318</v>
+        <v>0.1811806337205882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7657486563851724</v>
+        <v>0.7260539689056654</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.782133701843419</v>
+        <v>0.7662474537334335</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8868346001829515</v>
+        <v>0.8687797619946207</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.28514529790787146</v>
+        <v>0.2669832805744337</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.589971043990006</v>
+        <v>3.278028265239179</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.03362895256321836</v>
+        <v>0.03563640818301579</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.0507039769651875</v>
+        <v>0.04713449028646769</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20609224046119062</v>
+        <v>0.20111653647394565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7696457397972053</v>
+        <v>0.7619323006869767</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7875982250848288</v>
+        <v>0.7888863157259828</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8897283855284057</v>
+        <v>0.8956293903169774</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.29178796750655983</v>
+        <v>0.2933852267239297</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.7080585856656745</v>
+        <v>3.736784370178674</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.03296324048891286</v>
+        <v>0.03279436824076771</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.05006121032814998</v>
+        <v>0.06949910784115161</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2140110531748849</v>
+        <v>0.20111653647394565</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7662335977515105</v>
+        <v>0.7358392891467314</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7883514663387641</v>
+        <v>0.7684625049107094</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.880848737403502</v>
+        <v>0.8773912887278222</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.29272051840127333</v>
+        <v>0.269418544856782</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.724814212984802</v>
+        <v>3.3189549045365574</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.03366108682102786</v>
+        <v>0.03460604582655191</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.058096233906131056</v>
+        <v>0.07153321624425636</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.20902263121013318</v>
+        <v>0.16681711214033906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7741998060135791</v>
+        <v>0.745492554971403</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7966605460957643</v>
+        <v>0.7776333514834816</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.891338088388517</v>
+        <v>0.8804662556443129</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3032915084612861</v>
+        <v>0.27983161121126693</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.9178847528082676</v>
+        <v>3.497077267078185</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.03275272925866623</v>
+        <v>0.03319909389351615</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.058925126104266</v>
+        <v>0.0695742939849371</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2140110531748849</v>
+        <v>0.1792637091646058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.779665036453248</v>
+        <v>0.7366013268297222</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8083437300927115</v>
+        <v>0.7783264910782267</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8707304450785778</v>
+        <v>0.8963888418438666</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3190935277901575</v>
+        <v>0.28064103221319964</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.2176743316758625</v>
+        <v>3.5111389487360505</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.031353498317251316</v>
+        <v>0.03484097670611766</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.04933164785144974</v>
+        <v>0.07617642078622394</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.22475669957420663</v>
+        <v>0.16894001970415787</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7887024862363828</v>
+        <v>0.7516867064510988</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8114053621485513</v>
+        <v>0.7905215620059353</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8728331674977792</v>
+        <v>0.9024983112136324</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.32342922367382676</v>
+        <v>0.29543068857698784</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.30237768895463</v>
+        <v>3.77376101128047</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.029981331218435096</v>
+        <v>0.032347442785857085</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.047791609799833566</v>
+        <v>0.07216128408812261</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.22475669957420663</v>
+        <v>0.1792637091646058</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7798169830296497</v>
+        <v>0.7204182965511832</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8014887899408268</v>
+        <v>0.7660866358901657</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.917249708683956</v>
+        <v>0.8576804446861017</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.30968354612589283</v>
+        <v>0.26680764513679694</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.037498888359581</v>
+        <v>3.2750870768138247</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.032328198918104685</v>
+        <v>0.03624958527268994</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.06656201590350394</v>
+        <v>0.0664227672692032</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.20552847023936727</v>
+        <v>0.1792637091646058</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7870027170607081</v>
+        <v>0.729977353745919</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8081035657376778</v>
+        <v>0.7738360529570423</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9206125844882255</v>
+        <v>0.8700954685488285</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.31875696535478437</v>
+        <v>0.27545397935682</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.211144249991645</v>
+        <v>3.421571223330567</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.03106897292354967</v>
+        <v>0.035328600214225944</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.06393119873974372</v>
+        <v>0.06786072972195825</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20809654162053393</v>
+        <v>0.1811806337205882</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.67400649144576</v>
+        <v>0.6560772062370165</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7227441896789846</v>
+        <v>0.6253943957396572</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.704700182741981</v>
+        <v>0.6525581437064658</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5933098442717066</v>
+        <v>0.6186574214585476</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.4453781512605044</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0142834073206781</v>
+        <v>0.42597609451787066</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6323010312755191</v>
+        <v>0.7131617048818196</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6745616550019785</v>
+        <v>0.6735984891427651</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6480538627888766</v>
+        <v>0.7076918482478237</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.527646605421774</v>
+        <v>0.5624229296804693</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.9159663865546217</v>
+        <v>0.8739495798319328</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1830714975655894</v>
+        <v>1.628946950311086</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6512905071151193</v>
+        <v>0.6863148609178201</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7074162008326729</v>
+        <v>0.6457065389131695</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6988579231001865</v>
+        <v>0.6751017719737803</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5618494535478368</v>
+        <v>0.5107491858994514</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.5294117647058822</v>
+        <v>0.9243697478991597</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0642378462635789</v>
+        <v>1.7522850160239742</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6169905788470444</v>
+        <v>0.338672226782371</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.668184292007603</v>
+        <v>0.4846933431002149</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6543709963952306</v>
+        <v>0.3999462440726472</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5027158135436902</v>
+        <v>0.318219076845057</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.9495798319327733</v>
+        <v>0.9747899159663865</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2477012048318918</v>
+        <v>0.15742552040162258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.641626397465263</v>
+        <v>0.5563622263596542</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6626766040016602</v>
+        <v>0.6308549941622715</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6500058038147831</v>
+        <v>0.587283385956516</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5380735395338084</v>
+        <v>0.4417908583922321</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.2016806722689077</v>
+        <v>3.4453781512605044</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.1902131409518462</v>
+        <v>1.0142834073206781</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5767306092104774</v>
+        <v>0.5035802229953829</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6002438558326065</v>
+        <v>0.5673505432989026</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5754671216244661</v>
+        <v>0.517811416042532</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4752470546175663</v>
+        <v>0.3586419857596556</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.100840336134454</v>
+        <v>3.9159663865546217</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.0608196222268802</v>
+        <v>1.1830714975655894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5978232104511406</v>
+        <v>0.6131681753675822</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5069164108420133</v>
+        <v>0.5624142608922438</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5235005787021321</v>
+        <v>0.46802988988414895</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.43730508784541805</v>
+        <v>0.43932930399346465</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.8739495798319328</v>
+        <v>1.3949579831932772</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.628946950311086</v>
+        <v>1.5634516757122439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5740647319530892</v>
+        <v>0.492962205760729</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.4813095937221418</v>
+        <v>0.47221902215396616</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.49650885948825546</v>
+        <v>0.3629209306249613</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.3933278841077204</v>
+        <v>0.3253007831437598</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.9243697478991597</v>
+        <v>2.3865546218487395</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7522850160239742</v>
+        <v>1.3347331587407338</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5856220390272778</v>
+        <v>0.6581746421060297</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5624921906114762</v>
+        <v>0.6467776577978067</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.46701725097815766</v>
+        <v>0.6388955435920176</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.42991023883447</v>
+        <v>0.5419443600162145</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.3949579831932772</v>
+        <v>2.2016806722689077</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5634516757122439</v>
+        <v>1.1902131409518462</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>119.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.49845137298586006</v>
+        <v>0.5987240285523537</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5089041638955609</v>
+        <v>0.5940476849030096</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4034255725261141</v>
+        <v>0.5719331838055204</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3538741132927625</v>
+        <v>0.4855059142394936</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3865546218487395</v>
+        <v>2.100840336134454</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3347331587407338</v>
+        <v>1.0608196222268802</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.025210084033613446</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.05042016806722689</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.008403361344537815</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.36134453781512604</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4789915966386555</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.07563025210084033</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.025210084033613446</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.058823529411764705</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.31092436974789917</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="F40" t="n" s="801">
         <v>0.15966386554621848</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.44537815126050423</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.01680672268907563</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C41" t="n" s="798">
+        <v>0.008403361344537815</v>
+      </c>
+      <c r="D41" t="n" s="799">
+        <v>0.008403361344537815</v>
+      </c>
+      <c r="E41" t="n" s="800">
         <v>0.06722689075630252</v>
       </c>
-      <c r="D41" t="n" s="799">
-        <v>0.01680672268907563</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="F41" t="n" s="801">
-        <v>0.4957983193277311</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.11764705882352941</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.01680672268907563</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.008403361344537815</v>
+        <v>0.9747899159663865</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.08403361344537816</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3277310924369748</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.025210084033613446</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5378151260504201</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.12605042016806722</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.09243697478991597</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3865546218487395</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.24369747899159663</v>
+        <v>0.36134453781512604</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.15126050420168066</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.1092436974789916</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.09243697478991597</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4789915966386555</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.226890756302521</v>
+        <v>0.31092436974789917</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.09243697478991597</v>
+        <v>0.15966386554621848</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.44537815126050423</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7647058823529411</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.008403361344537815</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.008403361344537815</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.04201680672268908</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.15966386554621848</v>
+        <v>0.10084033613445378</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.01680672268907563</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7647058823529411</v>
+        <v>0.18487394957983194</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.008403361344537815</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.008403361344537815</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.06722689075630252</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.058823529411764705</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.09243697478991597</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5042016806722689</v>
+        <v>0.12605042016806722</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.08403361344537816</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.025210084033613446</v>
+        <v>0.3865546218487395</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.2857142857142857</v>
+        <v>0.24369747899159663</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.10084033613445378</v>
+        <v>0.15126050420168066</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.18487394957983194</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.06722689075630252</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.06722689075630252</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5378151260504201</v>
+        <v>0.226890756302521</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14285714285714285</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
